--- a/plan.xlsx
+++ b/plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lamviec\QLHocSinh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XinViec\StudentManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF87F911-1391-4E8C-8034-C6600A4051AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45754EEF-56F3-4959-9387-4C32EF4BB957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{4C5186F7-130D-4BA5-8464-55619B33A712}"/>
+    <workbookView xWindow="5490" yWindow="5490" windowWidth="28800" windowHeight="15345" xr2:uid="{4C5186F7-130D-4BA5-8464-55619B33A712}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>BE</t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Đăng ký</t>
+  </si>
+  <si>
+    <t>Đăng nhập</t>
+  </si>
+  <si>
+    <t>Đổi mật khẩu</t>
   </si>
 </sst>
 </file>
@@ -113,13 +122,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -172,19 +181,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -200,9 +207,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office 2013 – 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -240,7 +247,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -346,7 +353,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -488,7 +495,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -496,21 +503,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3942B6B5-F3C2-48E5-83BD-1528A978F8E0}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="46.375" customWidth="1"/>
-    <col min="3" max="3" width="20.25" customWidth="1"/>
-    <col min="4" max="4" width="19.125" customWidth="1"/>
-    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -525,7 +532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -536,16 +543,16 @@
         <v>22</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <f t="shared" ref="A3:A12" si="0">A2+1</f>
+        <f t="shared" ref="A3:A15" si="0">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -555,14 +562,14 @@
         <v>22</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -570,16 +577,18 @@
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -589,14 +598,14 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -604,16 +613,18 @@
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -623,14 +634,14 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -640,14 +651,14 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -657,21 +668,21 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -681,14 +692,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -696,14 +707,56 @@
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/plan.xlsx
+++ b/plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XinViec\StudentManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45754EEF-56F3-4959-9387-4C32EF4BB957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF1BA0B-10C4-4A26-9237-8C5DB4335B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5490" yWindow="5490" windowWidth="28800" windowHeight="15345" xr2:uid="{4C5186F7-130D-4BA5-8464-55619B33A712}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>BE</t>
   </si>
@@ -506,7 +506,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -596,7 +596,9 @@
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
         <v>13</v>
@@ -632,7 +634,9 @@
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
         <v>14</v>
@@ -649,7 +653,9 @@
       <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -690,7 +696,9 @@
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
         <v>20</v>
@@ -707,7 +715,9 @@
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
         <v>20</v>
